--- a/biology/Médecine/Muscle_supra-épineux/Muscle_supra-épineux.xlsx
+++ b/biology/Médecine/Muscle_supra-épineux/Muscle_supra-épineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_supra-%C3%A9pineux</t>
+          <t>Muscle_supra-épineux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle supra-épineux (ou muscle sus-épineux) est un muscle postérieur de l'épaule. Avec les muscles sous-scapulaire, infra-épineux et petit rond, il compose la coiffe des rotateurs.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_supra-%C3%A9pineux</t>
+          <t>Muscle_supra-épineux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle supra-épineux se fixe au-dessus de l'épine de la scapula dans les 2/3 médiaux de la fosse supra-épineuse.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_supra-%C3%A9pineux</t>
+          <t>Muscle_supra-épineux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle supra-épineux est plat triangulaire de base médiale et de sommet latéral.
 Il est horizontal de dedans en dehors, passe sous le ligament coraco-acromial et adhère à la face supérieure de la capsule articulaire de l'articulation gléno-humérale.
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_supra-%C3%A9pineux</t>
+          <t>Muscle_supra-épineux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle supra-épineux se termine sur la face supérieure du grand tubercule de l'humérus.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_supra-%C3%A9pineux</t>
+          <t>Muscle_supra-épineux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle supra-épineux est innervé par le nerf supra-scapulaire issu du tronc supérieur du plexus brachial (Racines C5, C6).
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_supra-%C3%A9pineux</t>
+          <t>Muscle_supra-épineux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,10 +656,12 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle supra-épineux  est abducteur accessoire de l'épaule avec le muscle deltoïde.
-Même si on a longtemps considéré qu'il était l'initiateur du mouvement de l'abduction, il semble que cela ne soit pas le cas[1]. En effet, il aurait une composante stabilisatrice marquée, permettant un centrage permanent de la tête humérale au sein de la glène. Il empêche l'action d'élévation du moignon de l'épaule dû à la contraction du muscle deltoïde. Il amène donc le deltoïde à faire une abduction. Il restera tout de même contracté par la suite.
+Même si on a longtemps considéré qu'il était l'initiateur du mouvement de l'abduction, il semble que cela ne soit pas le cas. En effet, il aurait une composante stabilisatrice marquée, permettant un centrage permanent de la tête humérale au sein de la glène. Il empêche l'action d'élévation du moignon de l'épaule dû à la contraction du muscle deltoïde. Il amène donc le deltoïde à faire une abduction. Il restera tout de même contracté par la suite.
 Ce muscle est synergique du deltoïde. C'est donc un muscle agoniste hétéronyme du muscle deltoïde (même rôle mais insertions différentes).
 </t>
         </is>
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_supra-%C3%A9pineux</t>
+          <t>Muscle_supra-épineux</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,7 +691,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La rupture du tendon du muscle supra-épineux entre dans les pathologies de rupture de la coiffe des rotateurs car il adhère à la capsule au niveau de son tendon terminal.
 </t>
